--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_26_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_26_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36074.91708574336</v>
+        <v>7149701.799357528</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>36074.91708574336</v>
+        <v>7149701.799357528</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>24753.2498999485</v>
+        <v>1643613.19716603</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>24753.2498999485</v>
+        <v>1643613.19716603</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1343689125.733188</v>
+        <v>54897909.65492804</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12823.53510303438</v>
+        <v>1391875.052496826</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23706.03909794554</v>
+        <v>2463722.427399658</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>34588.54309285666</v>
+        <v>3535569.802302494</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>45941.99168842984</v>
+        <v>4606314.37645647</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>57295.49745596642</v>
+        <v>5677151.718717869</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>68649.41222293365</v>
+        <v>6747989.060979269</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>80003.32698990086</v>
+        <v>7818826.403240665</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>91357.65075629874</v>
+        <v>8889663.745502062</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>102710.9409641133</v>
+        <v>9960019.229650253</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>114064.7944954832</v>
+        <v>11030486.81518597</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>125418.6480268532</v>
+        <v>12100954.4007217</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>136772.5015582231</v>
+        <v>13171421.98625743</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>148126.3550895931</v>
+        <v>14241889.57179316</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>159946.2162601797</v>
+        <v>15241778.43989316</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>171840.9981048428</v>
+        <v>16257774.57572471</v>
       </c>
     </row>
   </sheetData>
@@ -27037,25 +27037,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>288</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27064,7 +27064,7 @@
         <v>288</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>780</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
